--- a/biology/Botanique/Stegnospermataceae/Stegnospermataceae.xlsx
+++ b/biology/Botanique/Stegnospermataceae/Stegnospermataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Stegnospermataceae (Stégnospermatacées) regroupe des plantes dicotylédones ; elle comprend 3 espèces du genre Stegnosperma.
 Ce sont des arbustes et des lianes, succulentes, à feuilles alternes, des zones arides des régions subtropicales à tropicales, originaires d'Amérique centrale, du Mexique et des Antilles.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Stegnosperma composé des mots grecs στεγνός / stegnos, "qui couvre, couvert", et σπέρμα / sperma, "graine", en référence à l'arille, enveloppe charnue, qui recouvre la graine.
 </t>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Caryophyllales.
 Cette famille n'existe pas en classification classique qui assigne ce genre à la famille des Phytolaccaceae
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (4 mai 2010)[1], NCBI  (4 mai 2010)[2] et DELTA Angio           (4 mai 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (4 mai 2010), NCBI  (4 mai 2010) et DELTA Angio           (4 mai 2010) :
 genre Stegnosperma Benth.</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (4 mai 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (4 mai 2010) :
 genre Stegnosperma
 Stegnosperma cubense
 Stegnosperma halimifolium</t>
